--- a/experiment result/128_0.2_40_zs20_kappa_lp.xlsx
+++ b/experiment result/128_0.2_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06469024431646694</v>
+        <v>0.003871780043593357</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07673526029399261</v>
+        <v>0.02372489531839436</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08365492263658549</v>
+        <v>0.04455575272307709</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08026299119089275</v>
+        <v>0.03195086119993632</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06910609522546152</v>
+        <v>0.006514918370152711</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09008405507127121</v>
+        <v>0.04624321798483853</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08819842665648395</v>
+        <v>0.05172215716896984</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07538239261864424</v>
+        <v>0.01022057392874447</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06783138269389637</v>
+        <v>0.02841127931689082</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05904063690886807</v>
+        <v>0.09401754354609822</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0789757265693449</v>
+        <v>0.01940817653282148</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1153702192305313</v>
+        <v>0.1127779071687986</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0872767161217146</v>
+        <v>0.01530952694427393</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07336125798090422</v>
+        <v>0.01728237022159095</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07129608663079663</v>
+        <v>0.04307839875073046</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0948235612432259</v>
+        <v>0.03899279592697076</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07820354244180081</v>
+        <v>0.02785320725949669</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06076542918695475</v>
+        <v>0.001930098261785473</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07299049207902478</v>
+        <v>0.09274294374935826</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08079289884106231</v>
+        <v>0.02657748384039785</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06341148288804979</v>
+        <v>0.01285688889150624</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06733453131117746</v>
+        <v>0.0127453281238444</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08195373269522672</v>
+        <v>0.06657428767403419</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04745930541899675</v>
+        <v>0.01357108805033586</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05164893211211828</v>
+        <v>0.00162720403902254</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09316871146915089</v>
+        <v>0.03586393867792628</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09449992705950129</v>
+        <v>0.01125531220332173</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07318388875969792</v>
+        <v>0.04952793288601798</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05844308392061041</v>
+        <v>0.03244194011713935</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08921173482031422</v>
+        <v>0.04168953359938086</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03381339496453766</v>
+        <v>0.0003345384752160847</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07739706299302973</v>
+        <v>0.006727571388209538</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08507908875269314</v>
+        <v>0.06898094693070864</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0528254289981465</v>
+        <v>0.02641073838166559</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0845937441482072</v>
+        <v>0.02604884394458468</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06774190337365261</v>
+        <v>0.07628168252349646</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06616964929999758</v>
+        <v>0.02409020532059679</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08632660982247481</v>
+        <v>0.009092674769912285</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06518384045432185</v>
+        <v>0.02981595494354823</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08349774817354666</v>
+        <v>0.04609007101304961</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07335593498808088</v>
+        <v>0.06883854161912373</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05219201914248088</v>
+        <v>0.04850906496445032</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07822728799450408</v>
+        <v>0.08713779104553372</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07267856472883293</v>
+        <v>0.04567790299693749</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07246055155567334</v>
+        <v>0.07259244086306892</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08146652743856655</v>
+        <v>0.06537042987234123</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08387967020555773</v>
+        <v>0.1116728139089989</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0569299290299539</v>
+        <v>0.009505094463270318</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07460575531264885</v>
+        <v>0.01096095733406851</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06455199791318741</v>
+        <v>0.004702040621240955</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07057082248009612</v>
+        <v>0.01964908466960583</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08170249642078954</v>
+        <v>0.05572583162555429</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03518410225195556</v>
+        <v>0.002066370032756665</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04863551245354003</v>
+        <v>0.004267682833420564</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0826749729607638</v>
+        <v>0.03264988444627312</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07368761962619318</v>
+        <v>0.04709826969847456</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07078128548269536</v>
+        <v>0.02853891167301469</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07584050902582133</v>
+        <v>0.03340898188818498</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07068098854813351</v>
+        <v>0.02528422579098792</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0777467607365474</v>
+        <v>0.02815884180510587</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03766089855966455</v>
+        <v>0.00140768880612894</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04348998434204805</v>
+        <v>0.006581618278278407</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0666525000278464</v>
+        <v>0.01730578799591346</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06143248154123084</v>
+        <v>0.01329494258811544</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07402036530285938</v>
+        <v>0.01867425141918303</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07276417319304386</v>
+        <v>0.02775815986195783</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0748210945859147</v>
+        <v>0.02221540901944629</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05847980976335393</v>
+        <v>0.02280082107692597</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05515647073836735</v>
+        <v>0.01880492749973474</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06498592147878153</v>
+        <v>0.01796445494801188</v>
       </c>
     </row>
   </sheetData>
